--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5099.206054585516</v>
+        <v>-5162.332499940758</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108955</v>
+        <v>25841374.97493689</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429402</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4286446.192424263</v>
+        <v>4178209.484643727</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>374.4268935289278</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>204.7466663989539</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -741,13 +743,13 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>94.13938596491226</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55000000000001</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
         <v>84.53123883647795</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>41.70493334703202</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>423.7081317587393</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>225.5637196568042</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>46.00653523367685</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>172.2971058144373</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>4.609587791059698</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.26988917406528</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1227,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>4.609587791059698</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T12" t="n">
         <v>128.8768572327044</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.6519885581983</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>4.196966311928331</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>49.71552145369114</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>405.4164878341365</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>196.367567780873</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2005,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>55.37223500058131</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>262.8173901826144</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2096,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>163.4674767794822</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>376.6861762689736</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2302,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>99.79832775889827</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.1772265485036</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2318,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>125.2558025085172</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2369,7 +2371,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -2378,7 +2380,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>264.5484424901697</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>84.85899356878446</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7884964950064</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>21.6165444382566</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.2251504404944</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>87.7100749077802</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2792,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>46.68188763447793</v>
       </c>
     </row>
     <row r="30">
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>67.1472537942084</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>172.0647531850085</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>232.79575053631</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>159.5828560759984</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>168.5506898897219</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3269,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>383.3590907834184</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3317,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>129.084621233348</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>196.5161789233726</v>
+        <v>17.40792077647028</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>393.3997648813378</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>50.98583392895355</v>
       </c>
       <c r="E38" t="n">
         <v>424.2958575201043</v>
@@ -3515,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>106.0626366504663</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>146.3320355070708</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>393.8123863604691</v>
+        <v>343.8308074931169</v>
       </c>
       <c r="C41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3901,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>38.46943731815481</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>65.14560100348315</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>76.67683354921397</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0765084323517</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>203.1869771812474</v>
       </c>
     </row>
     <row r="45">
@@ -4107,22 +4109,22 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>18.69994113782448</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4144,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>178.4023398587187</v>
+        <v>152.9189507365545</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.601755817686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.601755817686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>412.1526519641617</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4361,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>646.930316449007</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>646.930316449007</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>646.930316449007</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4519,19 +4521,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>646.930316449007</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>646.930316449007</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.2025990419473</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="C5" t="n">
-        <v>262.2025990419473</v>
+        <v>864.3399636139361</v>
       </c>
       <c r="D5" t="n">
-        <v>262.2025990419473</v>
+        <v>864.3399636139361</v>
       </c>
       <c r="E5" t="n">
-        <v>262.2025990419473</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G5" t="n">
         <v>34.36045797446834</v>
@@ -4565,25 +4567,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N5" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4598,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>670.4887227422939</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X5" t="n">
-        <v>670.4887227422939</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.2025990419473</v>
+        <v>1292.327975491451</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4637,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4644,25 +4646,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L6" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0602407069692</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N6" t="n">
-        <v>900.1131396518725</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O6" t="n">
-        <v>1320.166038596776</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P6" t="n">
-        <v>1320.166038596776</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>711.8779941617646</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>422.7132453248092</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>246.0061912865654</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>80.41491631239305</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>80.41491631239305</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4747,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W7" t="n">
-        <v>711.8779941617646</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X7" t="n">
-        <v>711.8779941617646</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y7" t="n">
-        <v>711.8779941617646</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C8" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D8" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F8" t="n">
         <v>33.94366860160834</v>
@@ -4811,16 +4813,16 @@
         <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="N8" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="O8" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P8" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4838,16 +4840,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1692.527280796519</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1287.671826207552</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="Y8" t="n">
-        <v>461.8110981924006</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>540.1154135929013</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4869,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4884,13 +4886,13 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
         <v>1159.957753041174</v>
@@ -4923,10 +4925,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>787.9050938934437</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>661.4193146726644</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C10" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D10" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E10" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
         <v>33.94366860160834</v>
@@ -4960,19 +4962,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.601755817686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D11" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E11" t="n">
-        <v>411.4384072922223</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F11" t="n">
         <v>33.94366860160834</v>
@@ -5039,28 +5041,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K11" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P11" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q11" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
@@ -5075,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1692.527280796519</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1287.671826207552</v>
       </c>
       <c r="X11" t="n">
-        <v>1697.183430080417</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.183430080417</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J12" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K12" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L12" t="n">
-        <v>1224.671464618085</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M12" t="n">
-        <v>1580.010651986078</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N12" t="n">
-        <v>1580.010651986078</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O12" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>891.5238064999317</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="C14" t="n">
-        <v>462.9421322372</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D14" t="n">
-        <v>462.9421322372</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E14" t="n">
         <v>34.36045797446834</v>
@@ -5279,22 +5281,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q14" t="n">
         <v>1528.02936532736</v>
@@ -5312,16 +5314,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1692.944070169379</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>1288.088615580412</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>868.9461521597227</v>
       </c>
       <c r="Y14" t="n">
-        <v>1278.040966659728</v>
+        <v>460.6600284593761</v>
       </c>
     </row>
     <row r="15">
@@ -5334,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5343,10 +5345,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>419.5106457631153</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>419.5106457631153</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>419.5106457631153</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>249.7526420138526</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
         <v>33.94366860160834</v>
@@ -5434,25 +5436,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>761.43086230084</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M16" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N16" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O16" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5467,19 +5469,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W16" t="n">
-        <v>892.3220711155946</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>646.930316449007</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y16" t="n">
-        <v>419.5106457631153</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>443.4552724744735</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C17" t="n">
-        <v>443.4552724744735</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D17" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H17" t="n">
         <v>33.94366860160834</v>
@@ -5516,16 +5518,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O17" t="n">
         <v>687.9235674375537</v>
@@ -5549,16 +5551,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W17" t="n">
-        <v>1697.183430080417</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X17" t="n">
-        <v>1278.040966659728</v>
+        <v>731.3599468587387</v>
       </c>
       <c r="Y17" t="n">
-        <v>869.7548429593813</v>
+        <v>323.0738231583921</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>664.9024004297028</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="C19" t="n">
-        <v>664.9024004297028</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D19" t="n">
-        <v>664.9024004297028</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E19" t="n">
-        <v>495.14439668044</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F19" t="n">
-        <v>318.4373426421962</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G19" t="n">
         <v>262.5057921365585</v>
@@ -5671,22 +5673,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M19" t="n">
-        <v>813.4916901053949</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N19" t="n">
-        <v>813.4916901053949</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P19" t="n">
         <v>1528.990655216085</v>
@@ -5707,16 +5709,16 @@
         <v>1451.303983658873</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.348475529303</v>
+        <v>1185.831872363302</v>
       </c>
       <c r="W19" t="n">
-        <v>892.3220711155946</v>
+        <v>1185.831872363302</v>
       </c>
       <c r="X19" t="n">
-        <v>892.3220711155946</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="Y19" t="n">
-        <v>664.9024004297028</v>
+        <v>940.4401176967148</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2078.642592532902</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C20" t="n">
-        <v>1640.500119716325</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D20" t="n">
-        <v>1204.590334890769</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E20" t="n">
-        <v>770.8155900490646</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F20" t="n">
-        <v>342.9481604582723</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>342.9481604582723</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2504.942163017809</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2504.942163017809</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2504.942163017809</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>2504.942163017809</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>2504.942163017809</v>
+        <v>1316.69234294004</v>
       </c>
       <c r="Y20" t="n">
-        <v>2504.942163017809</v>
+        <v>1316.69234294004</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>1058.729261281022</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>339.7238357097111</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>339.7238357097111</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2510.819457729425</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.94001130788</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U22" t="n">
-        <v>1986.507010560985</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V22" t="n">
-        <v>1699.551502431416</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W22" t="n">
-        <v>1427.525098017707</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.13334335112</v>
+        <v>758.96212511459</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.45937714051</v>
+        <v>531.5424544286982</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1744.502472739146</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C23" t="n">
-        <v>1306.35999992257</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D23" t="n">
-        <v>870.4502150970143</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E23" t="n">
-        <v>870.4502150970143</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F23" t="n">
-        <v>743.9292024621484</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G23" t="n">
-        <v>342.5313710854123</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>1149.495958523325</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L23" t="n">
-        <v>1149.495958523325</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M23" t="n">
-        <v>1149.495958523325</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N23" t="n">
-        <v>1149.495958523325</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O23" t="n">
-        <v>1810.336013065103</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P23" t="n">
-        <v>2123.562040472833</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q23" t="n">
-        <v>2670.060826431428</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2586.408952615265</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.341725488303</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U23" t="n">
-        <v>2107.11942280532</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V23" t="n">
-        <v>1744.502472739146</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W23" t="n">
-        <v>1744.502472739146</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X23" t="n">
-        <v>1744.502472739146</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y23" t="n">
-        <v>1744.502472739146</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160836</v>
       </c>
       <c r="I24" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206596</v>
       </c>
       <c r="J24" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>900.7186013536161</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1568898368411</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D25" t="n">
-        <v>562.2788970383638</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E25" t="n">
-        <v>392.520893289101</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F25" t="n">
-        <v>215.8138392508572</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T25" t="n">
-        <v>2402.763558715255</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U25" t="n">
-        <v>2124.330557968361</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V25" t="n">
-        <v>1837.375049838791</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W25" t="n">
-        <v>1565.348645425083</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.956890758495</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y25" t="n">
-        <v>1092.537220072603</v>
+        <v>119.6598237215927</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323.4906125312521</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C26" t="n">
-        <v>323.4906125312521</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D26" t="n">
-        <v>323.4906125312521</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E26" t="n">
-        <v>323.4906125312521</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F26" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G26" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H26" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L26" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M26" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N26" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O26" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P26" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q26" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R26" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V26" t="n">
-        <v>771.6250763881362</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W26" t="n">
-        <v>771.6250763881362</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X26" t="n">
-        <v>749.7901830161599</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.7901830161599</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="27">
@@ -6282,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6291,37 +6293,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J27" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K27" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L27" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q27" t="n">
         <v>1580.010651986078</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>339.4371178854062</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C28" t="n">
-        <v>339.4371178854062</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D28" t="n">
-        <v>339.4371178854062</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E28" t="n">
-        <v>339.4371178854062</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F28" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G28" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
         <v>33.94366860160834</v>
@@ -6388,13 +6390,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M28" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N28" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O28" t="n">
         <v>1181.483761245743</v>
@@ -6406,28 +6408,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T28" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U28" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V28" t="n">
-        <v>1084.274947651594</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W28" t="n">
-        <v>812.2485432378854</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X28" t="n">
-        <v>566.8567885712979</v>
+        <v>619.1058988211928</v>
       </c>
       <c r="Y28" t="n">
-        <v>339.4371178854062</v>
+        <v>391.6862281353011</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.601755817686</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D29" t="n">
-        <v>840.020081554954</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E29" t="n">
-        <v>411.4384072922223</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6461,52 +6463,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J29" t="n">
-        <v>267.8706684926505</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K29" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M29" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N29" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P29" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q29" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X29" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y29" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6548,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>858.7506050139928</v>
+        <v>786.673939587406</v>
       </c>
       <c r="C31" t="n">
-        <v>686.1888934972177</v>
+        <v>614.112228070631</v>
       </c>
       <c r="D31" t="n">
-        <v>520.3109006987404</v>
+        <v>448.2342352721537</v>
       </c>
       <c r="E31" t="n">
-        <v>350.5528969494776</v>
+        <v>278.4762315228909</v>
       </c>
       <c r="F31" t="n">
-        <v>173.8458429112338</v>
+        <v>101.7691774846471</v>
       </c>
       <c r="G31" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H31" t="n">
         <v>33.94366860160834</v>
@@ -6619,19 +6621,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K31" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L31" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M31" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N31" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6649,22 +6651,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U31" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V31" t="n">
-        <v>1523.380649085459</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W31" t="n">
-        <v>1523.380649085459</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.988894418872</v>
+        <v>1205.912228992285</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.56922373298</v>
+        <v>978.4925583063932</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1697.183430080417</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C32" t="n">
-        <v>1268.601755817686</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D32" t="n">
-        <v>840.020081554954</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E32" t="n">
-        <v>411.4384072922223</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F32" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G32" t="n">
         <v>33.94366860160834</v>
@@ -6698,7 +6700,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
         <v>687.9235674375537</v>
@@ -6731,19 +6733,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V32" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W32" t="n">
-        <v>1697.183430080417</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X32" t="n">
-        <v>1697.183430080417</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="Y32" t="n">
-        <v>1697.183430080417</v>
+        <v>435.3414999783445</v>
       </c>
     </row>
     <row r="33">
@@ -6768,31 +6770,31 @@
         <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H33" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I33" t="n">
-        <v>60.00734176206596</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J33" t="n">
         <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
         <v>1159.957753041174</v>
@@ -6832,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>195.1384727187784</v>
+        <v>600.9454964518109</v>
       </c>
       <c r="C34" t="n">
-        <v>33.94366860160834</v>
+        <v>428.3837849350358</v>
       </c>
       <c r="D34" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E34" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F34" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G34" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H34" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K34" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L34" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M34" t="n">
-        <v>1181.483761245743</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6880,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U34" t="n">
-        <v>1418.750429333523</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.794921203953</v>
+        <v>1100.391571551411</v>
       </c>
       <c r="W34" t="n">
-        <v>859.7685167902448</v>
+        <v>828.3651671377027</v>
       </c>
       <c r="X34" t="n">
-        <v>614.3767621236573</v>
+        <v>828.3651671377027</v>
       </c>
       <c r="Y34" t="n">
-        <v>386.9570914377655</v>
+        <v>600.9454964518109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>724.8884439079882</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="C35" t="n">
-        <v>724.8884439079882</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="D35" t="n">
-        <v>724.8884439079882</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E35" t="n">
-        <v>724.8884439079882</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F35" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G35" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H35" t="n">
         <v>34.36045797446834</v>
@@ -6938,19 +6940,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L35" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M35" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N35" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O35" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P35" t="n">
         <v>1107.976466382457</v>
@@ -6965,22 +6967,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U35" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V35" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W35" t="n">
-        <v>724.8884439079882</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X35" t="n">
-        <v>724.8884439079882</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y35" t="n">
-        <v>724.8884439079882</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7013,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I36" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J36" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K36" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L36" t="n">
         <v>1159.957753041174</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="C37" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="D37" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E37" t="n">
         <v>33.94366860160834</v>
@@ -7099,46 +7101,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L37" t="n">
-        <v>437.4083829648294</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M37" t="n">
-        <v>857.4612819097326</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N37" t="n">
-        <v>1277.514180854636</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O37" t="n">
-        <v>1697.183430080417</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P37" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S37" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T37" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U37" t="n">
-        <v>992.2117929153466</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V37" t="n">
-        <v>705.2562847857771</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W37" t="n">
-        <v>506.7550939540876</v>
+        <v>868.3317164223374</v>
       </c>
       <c r="X37" t="n">
-        <v>261.3633392875001</v>
+        <v>622.9399617557499</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.94366860160834</v>
+        <v>395.5202910698582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>891.5238064999317</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="C38" t="n">
-        <v>462.9421322372</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="D38" t="n">
-        <v>462.9421322372</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="E38" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F38" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7208,16 +7210,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X38" t="n">
-        <v>1697.183430080417</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="Y38" t="n">
-        <v>1288.897306380071</v>
+        <v>915.4240165935545</v>
       </c>
     </row>
     <row r="39">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141.0776450162207</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="C40" t="n">
-        <v>141.0776450162207</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D40" t="n">
-        <v>141.0776450162207</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E40" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F40" t="n">
         <v>33.94366860160834</v>
@@ -7330,19 +7332,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L40" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M40" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N40" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7369,13 +7371,13 @@
         <v>885.9154747824084</v>
       </c>
       <c r="W40" t="n">
-        <v>613.8890703687</v>
+        <v>738.1053379065793</v>
       </c>
       <c r="X40" t="n">
-        <v>368.4973157021125</v>
+        <v>738.1053379065793</v>
       </c>
       <c r="Y40" t="n">
-        <v>141.0776450162207</v>
+        <v>738.1053379065793</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>891.1070171270717</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C41" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D41" t="n">
         <v>33.94366860160834</v>
@@ -7409,52 +7411,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J41" t="n">
-        <v>33.94366860160834</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="K41" t="n">
-        <v>33.94366860160834</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L41" t="n">
-        <v>33.94366860160834</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="M41" t="n">
-        <v>33.94366860160834</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="N41" t="n">
-        <v>267.8706684926505</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O41" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P41" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q41" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R41" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W41" t="n">
-        <v>1697.183430080417</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X41" t="n">
-        <v>1697.183430080417</v>
+        <v>789.5336382545983</v>
       </c>
       <c r="Y41" t="n">
-        <v>1288.897306380071</v>
+        <v>381.2475145542517</v>
       </c>
     </row>
     <row r="42">
@@ -7467,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7476,22 +7478,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I42" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J42" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
         <v>1159.957753041174</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>873.3120173069476</v>
+        <v>422.0704516497129</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7503057901725</v>
+        <v>249.5087401329378</v>
       </c>
       <c r="D43" t="n">
-        <v>534.8723129916953</v>
+        <v>249.5087401329378</v>
       </c>
       <c r="E43" t="n">
-        <v>365.1143092424325</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F43" t="n">
-        <v>188.4072552041887</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G43" t="n">
-        <v>188.4072552041887</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
@@ -7594,25 +7596,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T43" t="n">
-        <v>1537.942061378414</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U43" t="n">
-        <v>1537.942061378414</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V43" t="n">
-        <v>1537.942061378414</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W43" t="n">
-        <v>1537.942061378414</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X43" t="n">
-        <v>1292.550306711827</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y43" t="n">
-        <v>1065.130636025935</v>
+        <v>613.8890703687</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>91.93746769399618</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C44" t="n">
-        <v>91.93746769399618</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D44" t="n">
-        <v>91.93746769399618</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E44" t="n">
-        <v>91.93746769399618</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F44" t="n">
-        <v>91.93746769399618</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48612067458814</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>14.48612067458814</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>14.48612067458814</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>14.48612067458814</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
-        <v>193.7518640226163</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>196.6204822802937</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>375.8862256283219</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>555.1519689763501</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>640.6541599132439</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>457.7485958401613</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U44" t="n">
-        <v>274.8430317670787</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V44" t="n">
-        <v>91.93746769399618</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W44" t="n">
-        <v>91.93746769399618</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X44" t="n">
-        <v>91.93746769399618</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y44" t="n">
-        <v>91.93746769399618</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>520.6578656658809</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>414.2014045025232</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>319.1111156490765</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>224.9907009760302</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>141.6068625921918</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>56.22177285837567</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>40.54979383504573</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>219.8155371830739</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>219.8155371830739</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>219.8155371830739</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>219.8155371830739</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>219.8155371830739</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>248.6017689390107</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>660.85059617779</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>660.85059617779</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>660.85059617779</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>660.85059617779</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>660.85059617779</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>660.85059617779</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>641.961766745644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>522.6838287391033</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C46" t="n">
-        <v>350.1221172223282</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D46" t="n">
-        <v>184.2441244238509</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E46" t="n">
-        <v>14.48612067458814</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>101.065805839278</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K46" t="n">
-        <v>101.065805839278</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L46" t="n">
-        <v>101.065805839278</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M46" t="n">
-        <v>280.3315491873062</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N46" t="n">
-        <v>280.3315491873062</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O46" t="n">
-        <v>376.8475155170465</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P46" t="n">
-        <v>556.1132588650746</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>702.8882124347788</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>702.8882124347788</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T46" t="n">
-        <v>522.6838287391033</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="U46" t="n">
-        <v>522.6838287391033</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="V46" t="n">
-        <v>522.6838287391033</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="W46" t="n">
-        <v>522.6838287391033</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X46" t="n">
-        <v>522.6838287391033</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y46" t="n">
-        <v>522.6838287391033</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>52.98895607821123</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,7 +8294,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q6" t="n">
-        <v>262.4693064538403</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8459,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,16 +8534,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8608,22 +8610,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8768,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L12" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M12" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,25 +8929,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -9319,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9565,13 +9567,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P23" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9802,13 +9804,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L26" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P26" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L27" t="n">
+        <v>385.2554146752024</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10036,16 +10038,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10267,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10282,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K32" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10428,10 +10430,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -10504,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>371.7091627680287</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10586,10 +10588,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9284720888814</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10747,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -10993,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,19 +11305,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.89759419967416</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11373,13 +11375,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.07700177367349</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O46" t="n">
-        <v>97.49087508054578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>22.95695953404089</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22601,19 +22603,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>196.0602336441231</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -22711,19 +22713,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>126.3554903647381</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22784,19 +22786,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>10.05291632967158</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>198.0250356380801</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -22838,10 +22840,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22945,7 +22947,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22960,7 +22962,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>41.76681449939456</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -23002,7 +23004,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>97.00903455513404</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23030,7 +23032,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -23078,7 +23080,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>354.381192774452</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>355.9333732892778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23188,7 +23190,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>68.87734684739507</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>49.86896399117649</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23315,16 +23317,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>354.381192774452</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.38458622186039</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23552,16 +23554,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>354.7938142535834</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23659,13 +23661,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>125.2244620441702</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>26.13419914316341</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23747,7 +23749,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23789,13 +23791,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>218.5834710056094</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.5631272238493</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>21.26856286565942</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23969,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>54.39907807620958</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -24032,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>38.26486251750879</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.1395093610234</v>
       </c>
       <c r="Y22" t="n">
-        <v>175.9682474305292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,16 +24208,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>298.3329527863671</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>136.2584575529073</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0414389630128</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.146865729424235</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>393.3344943482258</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>10.67528209130282</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -24610,13 +24612,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>196.3758781404936</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24680,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>49.86896399117649</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24746,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>357.5213748288652</v>
       </c>
     </row>
     <row r="30">
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>96.78810843022221</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24889,13 +24891,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>112.0211998632653</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24917,19 +24919,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>49.86896399117649</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -24971,19 +24973,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>171.4075119270331</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>11.25323832560895</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -25090,10 +25092,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>115.535263158552</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25157,19 +25159,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>48.19159619388154</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25205,19 +25207,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>271.722278809729</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -25318,7 +25320,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>72.78996144619882</v>
+        <v>251.8982195931011</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28.63680989872091</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>380.5648530483463</v>
       </c>
       <c r="E38" t="n">
         <v>5.14113987318342</v>
@@ -25403,13 +25405,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>61.99778706130385</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>122.9741048625006</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.22418841958955</v>
+        <v>78.20576728694181</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -25688,10 +25690,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>129.5909863936153</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>73.35755156304607</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25877,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>320.7070195137547</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>36.79004642334004</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>75.55357122380155</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>177.91427213316</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>201.0162852820957</v>
       </c>
     </row>
     <row r="45">
@@ -25995,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>106.5209802907469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>65.01831209861058</v>
+        <v>90.50170122077475</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -26086,10 +26088,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>361339.1909897054</v>
+        <v>361339.1909897055</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>361339.1909897054</v>
+        <v>361339.1909897055</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508316.8404594797</v>
+        <v>361339.1909897055</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508316.8404594797</v>
+        <v>361339.1909897054</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>361339.1909897054</v>
+        <v>361339.1909897055</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361339.1909897054</v>
+        <v>361339.1909897055</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>361339.1909897055</v>
+        <v>361339.1909897054</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>361339.1909897055</v>
+        <v>361339.1909897054</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154208.5266790197</v>
+        <v>361339.1909897054</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>96161.8700496588</v>
       </c>
       <c r="C2" t="n">
-        <v>96161.8700496588</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="D2" t="n">
         <v>96161.8700496588</v>
@@ -26323,37 +26325,37 @@
         <v>96161.87004965881</v>
       </c>
       <c r="F2" t="n">
-        <v>96161.8700496588</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="G2" t="n">
         <v>96161.87004965881</v>
       </c>
       <c r="H2" t="n">
-        <v>135276.4913831621</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="I2" t="n">
-        <v>135276.491383162</v>
+        <v>96161.8700496588</v>
       </c>
       <c r="J2" t="n">
-        <v>96161.8700496588</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="K2" t="n">
-        <v>96161.8700496588</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="L2" t="n">
         <v>96161.8700496588</v>
       </c>
       <c r="M2" t="n">
-        <v>96161.8700496588</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="N2" t="n">
-        <v>96161.87004965881</v>
+        <v>96161.87004965883</v>
       </c>
       <c r="O2" t="n">
         <v>96161.8700496588</v>
       </c>
       <c r="P2" t="n">
-        <v>41038.94809317739</v>
+        <v>96161.8700496588</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,10 +26435,10 @@
         <v>37160.80836782805</v>
       </c>
       <c r="H4" t="n">
-        <v>52276.26886172088</v>
+        <v>37160.80836782805</v>
       </c>
       <c r="I4" t="n">
-        <v>52276.26886172089</v>
+        <v>37160.80836782805</v>
       </c>
       <c r="J4" t="n">
         <v>37160.80836782805</v>
@@ -26457,7 +26459,7 @@
         <v>37160.80836782805</v>
       </c>
       <c r="P4" t="n">
-        <v>15859.09763319145</v>
+        <v>37160.80836782805</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26522,7 +26524,7 @@
         <v>-142615.0271151015</v>
       </c>
       <c r="C6" t="n">
-        <v>-423.7264553915957</v>
+        <v>-423.7264553915811</v>
       </c>
       <c r="D6" t="n">
         <v>-423.7264553915957</v>
@@ -26531,37 +26533,37 @@
         <v>33203.87354460842</v>
       </c>
       <c r="F6" t="n">
-        <v>33203.8735446084</v>
+        <v>33203.87354460842</v>
       </c>
       <c r="G6" t="n">
         <v>33203.87354460842</v>
       </c>
       <c r="H6" t="n">
-        <v>-23207.47139833398</v>
+        <v>33203.87354460842</v>
       </c>
       <c r="I6" t="n">
-        <v>42415.29795968344</v>
+        <v>33203.8735446084</v>
       </c>
       <c r="J6" t="n">
-        <v>-14173.70842766583</v>
+        <v>-77810.59180038176</v>
       </c>
       <c r="K6" t="n">
-        <v>33203.8735446084</v>
+        <v>33203.87354460842</v>
       </c>
       <c r="L6" t="n">
         <v>33203.8735446084</v>
       </c>
       <c r="M6" t="n">
-        <v>33203.8735446084</v>
+        <v>33203.87354460842</v>
       </c>
       <c r="N6" t="n">
-        <v>33203.87354460842</v>
+        <v>33203.87354460843</v>
       </c>
       <c r="O6" t="n">
         <v>33203.8735446084</v>
       </c>
       <c r="P6" t="n">
-        <v>14170.39874729896</v>
+        <v>33203.8735446084</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34781,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>52.98895607821123</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,7 +35014,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q6" t="n">
-        <v>262.4693064538403</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35179,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,16 +35254,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35328,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L12" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M12" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35647,25 +35649,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>424.2958575201044</v>
@@ -36039,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36136,10 +36138,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36200,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,16 +36287,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36370,16 +36372,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P23" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,16 +36524,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L26" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36607,16 +36609,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P26" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L27" t="n">
+        <v>385.2554146752024</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36756,16 +36758,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36844,16 +36846,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37002,7 +37004,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K32" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>371.7091627680287</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37306,10 +37308,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9284720888814</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37467,22 +37469,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37715,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.89759419967416</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.07700177367349</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O46" t="n">
-        <v>97.49087508054578</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5162.332499940758</v>
+        <v>-11397.64999909581</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4178209.484643727</v>
+        <v>4178209.484643726</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>60.56984601203017</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>204.7466663989539</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491226</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>41.70493334703202</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -834,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>127.2518011220032</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>423.7081317587393</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>293.8708211909719</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>46.00653523367685</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>92.85483486179584</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>4.609587791059698</v>
+        <v>352.9564281023503</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1229,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>177.2477212125779</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>332.5081191665624</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>4.609587791059698</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T12" t="n">
         <v>128.8768572327044</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>22.56933810446021</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>296.16952369695</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>4.196966311928331</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>59.11411640442031</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>248.7774200849643</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>196.367567780873</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2022,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>262.8173901826144</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>72.21462998383448</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>378.7606637428541</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>376.6861762689736</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>126.5506474869049</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>99.79832775889827</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>46.26926615534656</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2338,7 +2338,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -2380,7 +2380,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>264.5484424901697</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.85899356878446</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>137.21446544368</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>28.44902143760651</v>
       </c>
       <c r="E26" t="n">
         <v>424.2958575201043</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.2251504404944</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>27.13230588491212</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2775,10 +2775,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2854,13 +2854,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>46.68188763447793</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.68188763447793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>67.1472537942084</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>117.2816808312916</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>268.3227659163214</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>232.79575053631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>102.3703078044264</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>168.5506898897219</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>383.3590907834184</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>11.42899719143395</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>17.40792077647028</v>
+        <v>0.1128872655202599</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>50.98583392895355</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E38" t="n">
         <v>424.2958575201043</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>182.7652409051517</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>146.3320355070708</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.8308074931169</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>73.03788137001466</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,19 +3900,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>38.46943731815481</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>84.36741032428287</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>177.7924927656916</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>203.1869771812474</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>159.5828560759984</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>152.9189507365545</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.94366860160834</v>
+        <v>95.12533124002266</v>
       </c>
       <c r="C2" t="n">
         <v>33.94366860160834</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>868.5293627868627</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>868.5293627868627</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y2" t="n">
-        <v>460.2432390865162</v>
+        <v>521.4249017249305</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.930316449007</v>
+        <v>630.7799396378264</v>
       </c>
       <c r="C4" t="n">
-        <v>646.930316449007</v>
+        <v>630.7799396378264</v>
       </c>
       <c r="D4" t="n">
-        <v>646.930316449007</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4494,13 +4494,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1387.987067233278</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1109.554066486383</v>
       </c>
       <c r="V4" t="n">
-        <v>1164.348475529303</v>
+        <v>822.5985583568136</v>
       </c>
       <c r="W4" t="n">
-        <v>892.3220711155946</v>
+        <v>822.5985583568136</v>
       </c>
       <c r="X4" t="n">
-        <v>646.930316449007</v>
+        <v>822.5985583568136</v>
       </c>
       <c r="Y4" t="n">
-        <v>646.930316449007</v>
+        <v>822.5985583568136</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.327975491451</v>
+        <v>1187.231985779346</v>
       </c>
       <c r="C5" t="n">
-        <v>864.3399636139361</v>
+        <v>758.6503115166147</v>
       </c>
       <c r="D5" t="n">
-        <v>864.3399636139361</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E5" t="n">
-        <v>435.7582893512044</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O5" t="n">
         <v>687.9235674375537</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X5" t="n">
-        <v>1292.327975491451</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y5" t="n">
-        <v>1292.327975491451</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>592.4712490740719</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="C7" t="n">
-        <v>592.4712490740719</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="D7" t="n">
-        <v>592.4712490740719</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="E7" t="n">
-        <v>422.7132453248092</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F7" t="n">
-        <v>246.0061912865654</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G7" t="n">
-        <v>80.41491631239305</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>80.41491631239305</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4734,10 +4734,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4752,25 +4752,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W7" t="n">
-        <v>592.4712490740719</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X7" t="n">
-        <v>592.4712490740719</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="Y7" t="n">
-        <v>592.4712490740719</v>
+        <v>339.4371178854062</v>
       </c>
     </row>
     <row r="8">
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4834,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V8" t="n">
-        <v>1692.527280796519</v>
+        <v>861.3722557226442</v>
       </c>
       <c r="W8" t="n">
-        <v>1287.671826207552</v>
+        <v>861.3722557226442</v>
       </c>
       <c r="X8" t="n">
-        <v>868.5293627868627</v>
+        <v>442.2297923019549</v>
       </c>
       <c r="Y8" t="n">
-        <v>460.2432390865162</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929013</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4925,10 +4925,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934437</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F10" t="n">
         <v>33.94366860160834</v>
@@ -4971,10 +4971,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1125.306203625186</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>718.8484307043673</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="C11" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="D11" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="E11" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M11" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N11" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P11" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q11" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R11" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V11" t="n">
-        <v>1692.527280796519</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W11" t="n">
-        <v>1287.671826207552</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X11" t="n">
-        <v>868.5293627868627</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y11" t="n">
-        <v>460.2432390865162</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J12" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M12" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N12" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>564.9386878827499</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>392.3769763659749</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>226.4989835674976</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>56.74097981823482</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5199,19 +5199,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K13" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L13" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M13" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N13" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O13" t="n">
         <v>1181.483761245743</v>
@@ -5223,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>984.1769772876289</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.0776450162207</v>
+        <v>756.7573066017371</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.36045797446834</v>
+        <v>1050.816632468548</v>
       </c>
       <c r="C14" t="n">
-        <v>34.36045797446834</v>
+        <v>622.2349582058164</v>
       </c>
       <c r="D14" t="n">
-        <v>34.36045797446834</v>
+        <v>622.2349582058164</v>
       </c>
       <c r="E14" t="n">
-        <v>34.36045797446834</v>
+        <v>622.2349582058164</v>
       </c>
       <c r="F14" t="n">
-        <v>34.36045797446834</v>
+        <v>622.2349582058164</v>
       </c>
       <c r="G14" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5281,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L14" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M14" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N14" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="L14" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="P14" t="n">
         <v>1528.02936532736</v>
@@ -5308,22 +5308,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V14" t="n">
-        <v>1692.944070169379</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W14" t="n">
-        <v>1288.088615580412</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X14" t="n">
-        <v>868.9461521597227</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y14" t="n">
-        <v>460.6600284593761</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="15">
@@ -5375,7 +5375,7 @@
         <v>1159.957753041174</v>
       </c>
       <c r="P15" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q15" t="n">
         <v>1580.010651986078</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>523.1146084662527</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H16" t="n">
         <v>33.94366860160834</v>
@@ -5436,25 +5436,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L16" t="n">
-        <v>437.4083829648294</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5463,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1232.351386265536</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>1232.351386265536</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>960.3249818518273</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>714.9332271852397</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>714.9332271852397</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.0738231583921</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="C17" t="n">
-        <v>323.0738231583921</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0738231583921</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="E17" t="n">
-        <v>323.0738231583921</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F17" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G17" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
         <v>33.94366860160834</v>
@@ -5545,22 +5545,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1225.82587963531</v>
       </c>
       <c r="V17" t="n">
-        <v>1334.566480014244</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="W17" t="n">
-        <v>929.7110254252771</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="X17" t="n">
-        <v>731.3599468587387</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="Y17" t="n">
-        <v>323.0738231583921</v>
+        <v>863.2089295691367</v>
       </c>
     </row>
     <row r="18">
@@ -5609,10 +5609,10 @@
         <v>804.6185656731816</v>
       </c>
       <c r="O18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>940.4401176967148</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C19" t="n">
-        <v>940.4401176967148</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D19" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E19" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F19" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G19" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H19" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N19" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O19" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
         <v>1528.990655216085</v>
@@ -5697,28 +5697,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U19" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V19" t="n">
-        <v>1185.831872363302</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W19" t="n">
-        <v>1185.831872363302</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X19" t="n">
-        <v>940.4401176967148</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y19" t="n">
-        <v>940.4401176967148</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>890.3927724551322</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C20" t="n">
-        <v>890.3927724551322</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="D20" t="n">
-        <v>461.8110981924006</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H20" t="n">
         <v>33.94366860160834</v>
@@ -5755,22 +5755,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M20" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N20" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O20" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P20" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q20" t="n">
         <v>1528.02936532736</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X20" t="n">
-        <v>1316.69234294004</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y20" t="n">
-        <v>1316.69234294004</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
         <v>1159.957753041174</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339.7238357097111</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C22" t="n">
-        <v>339.7238357097111</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D22" t="n">
-        <v>173.8458429112338</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E22" t="n">
-        <v>173.8458429112338</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F22" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
         <v>33.94366860160834</v>
@@ -5916,16 +5916,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M22" t="n">
-        <v>813.4916901053949</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N22" t="n">
-        <v>813.4916901053949</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="O22" t="n">
-        <v>1181.483761245743</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="P22" t="n">
         <v>1528.990655216085</v>
@@ -5937,25 +5937,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T22" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U22" t="n">
-        <v>1418.750429333523</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.794921203953</v>
+        <v>1410.113124522955</v>
       </c>
       <c r="W22" t="n">
-        <v>859.7685167902448</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="X22" t="n">
-        <v>758.96212511459</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.5424544286982</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>724.4716545351282</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C23" t="n">
-        <v>724.4716545351282</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="D23" t="n">
-        <v>724.4716545351282</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="E23" t="n">
-        <v>724.4716545351282</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="F23" t="n">
-        <v>724.4716545351282</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G23" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -5992,22 +5992,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
         <v>1528.02936532736</v>
@@ -6019,22 +6019,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U23" t="n">
-        <v>1354.309253581271</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V23" t="n">
-        <v>991.6923035150976</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W23" t="n">
-        <v>724.4716545351282</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X23" t="n">
-        <v>724.4716545351282</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y23" t="n">
-        <v>724.4716545351282</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,16 +6056,16 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>60.00734176206596</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
         <v>384.5656667282782</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.94366860160834</v>
+        <v>339.7238357097111</v>
       </c>
       <c r="C25" t="n">
-        <v>33.94366860160834</v>
+        <v>339.7238357097111</v>
       </c>
       <c r="D25" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E25" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F25" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G25" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H25" t="n">
         <v>33.94366860160834</v>
@@ -6147,25 +6147,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>395.2818083374338</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L25" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M25" t="n">
-        <v>1181.483761245743</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N25" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O25" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P25" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
@@ -6174,25 +6174,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>1429.886162364244</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.45316161735</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V25" t="n">
-        <v>864.4976534877803</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W25" t="n">
-        <v>592.4712490740719</v>
+        <v>812.5352610621903</v>
       </c>
       <c r="X25" t="n">
-        <v>347.0794944074844</v>
+        <v>567.1435063956028</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.6598237215927</v>
+        <v>339.7238357097111</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1697.183430080417</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="C26" t="n">
-        <v>1318.974446717864</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="D26" t="n">
-        <v>890.3927724551322</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="E26" t="n">
-        <v>461.8110981924006</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H26" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
@@ -6229,19 +6229,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L26" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M26" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O26" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6253,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X26" t="n">
-        <v>1697.183430080417</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="Y26" t="n">
-        <v>1697.183430080417</v>
+        <v>1208.676101675288</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,34 +6293,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>778.554892512724</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>210.6507226398521</v>
+        <v>227.228030980805</v>
       </c>
       <c r="C28" t="n">
-        <v>210.6507226398521</v>
+        <v>227.228030980805</v>
       </c>
       <c r="D28" t="n">
-        <v>210.6507226398521</v>
+        <v>61.35003818232767</v>
       </c>
       <c r="E28" t="n">
-        <v>210.6507226398521</v>
+        <v>61.35003818232767</v>
       </c>
       <c r="F28" t="n">
         <v>33.94366860160834</v>
@@ -6384,52 +6384,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L28" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M28" t="n">
-        <v>395.2818083374338</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N28" t="n">
-        <v>761.8145120199619</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O28" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P28" t="n">
-        <v>1528.990655216085</v>
+        <v>1641.225609687538</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T28" t="n">
-        <v>1429.886162364244</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U28" t="n">
-        <v>1151.45316161735</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V28" t="n">
-        <v>864.4976534877803</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W28" t="n">
-        <v>864.4976534877803</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X28" t="n">
-        <v>619.1058988211928</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="Y28" t="n">
-        <v>391.6862281353011</v>
+        <v>227.228030980805</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O29" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q29" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
@@ -6502,10 +6502,10 @@
         <v>771.6250763881362</v>
       </c>
       <c r="W29" t="n">
-        <v>771.6250763881362</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X29" t="n">
-        <v>771.6250763881362</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y29" t="n">
         <v>724.4716545351282</v>
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6548,16 +6548,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>786.673939587406</v>
+        <v>457.9528965503681</v>
       </c>
       <c r="C31" t="n">
-        <v>614.112228070631</v>
+        <v>457.9528965503681</v>
       </c>
       <c r="D31" t="n">
-        <v>448.2342352721537</v>
+        <v>457.9528965503681</v>
       </c>
       <c r="E31" t="n">
-        <v>278.4762315228909</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="F31" t="n">
-        <v>101.7691774846471</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H31" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N31" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6648,25 +6648,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T31" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U31" t="n">
-        <v>1451.303983658873</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V31" t="n">
-        <v>1451.303983658873</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W31" t="n">
-        <v>1451.303983658873</v>
+        <v>895.1632699359427</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.912228992285</v>
+        <v>649.7715152693552</v>
       </c>
       <c r="Y31" t="n">
-        <v>978.4925583063932</v>
+        <v>649.7715152693552</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>435.3414999783445</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="C32" t="n">
-        <v>435.3414999783445</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="D32" t="n">
-        <v>435.3414999783445</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="E32" t="n">
-        <v>435.3414999783445</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F32" t="n">
         <v>435.3414999783445</v>
@@ -6700,7 +6700,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K32" t="n">
         <v>687.9235674375537</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1075.344177331261</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="W32" t="n">
-        <v>670.4887227422939</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="X32" t="n">
-        <v>670.4887227422939</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="Y32" t="n">
-        <v>435.3414999783445</v>
+        <v>863.2089295691367</v>
       </c>
     </row>
     <row r="33">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>600.9454964518109</v>
+        <v>652.494778272707</v>
       </c>
       <c r="C34" t="n">
-        <v>428.3837849350358</v>
+        <v>479.9330667559319</v>
       </c>
       <c r="D34" t="n">
-        <v>262.5057921365585</v>
+        <v>314.0550739574546</v>
       </c>
       <c r="E34" t="n">
-        <v>262.5057921365585</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F34" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G34" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>33.94366860160834</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M34" t="n">
-        <v>341.7616130750586</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N34" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6885,25 +6885,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T34" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.644793662241</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.391571551411</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="W34" t="n">
-        <v>828.3651671377027</v>
+        <v>1125.306203625186</v>
       </c>
       <c r="X34" t="n">
-        <v>828.3651671377027</v>
+        <v>879.9144489585988</v>
       </c>
       <c r="Y34" t="n">
-        <v>600.9454964518109</v>
+        <v>652.494778272707</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1278.040966659728</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C35" t="n">
-        <v>1278.040966659728</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D35" t="n">
-        <v>890.8095618279922</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E35" t="n">
-        <v>462.2278875652606</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F35" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6973,16 +6973,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.183430080417</v>
+        <v>1685.638988472908</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.183430080417</v>
+        <v>1280.783533883942</v>
       </c>
       <c r="X35" t="n">
-        <v>1278.040966659728</v>
+        <v>861.6410704632523</v>
       </c>
       <c r="Y35" t="n">
-        <v>1278.040966659728</v>
+        <v>861.6410704632523</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I36" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J36" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K36" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
         <v>1159.957753041174</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>203.7016723508711</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C37" t="n">
-        <v>203.7016723508711</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D37" t="n">
-        <v>203.7016723508711</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E37" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7095,22 +7095,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L37" t="n">
-        <v>33.94366860160834</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M37" t="n">
-        <v>453.9965675465116</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N37" t="n">
-        <v>874.0494664914149</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O37" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P37" t="n">
         <v>1528.990655216085</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U37" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V37" t="n">
-        <v>885.9154747824084</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W37" t="n">
-        <v>868.3317164223374</v>
+        <v>1516.410212542856</v>
       </c>
       <c r="X37" t="n">
-        <v>622.9399617557499</v>
+        <v>1271.018457876269</v>
       </c>
       <c r="Y37" t="n">
-        <v>395.5202910698582</v>
+        <v>1043.598787190377</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>915.4240165935545</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="C38" t="n">
-        <v>915.4240165935545</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="D38" t="n">
-        <v>863.9231742410761</v>
+        <v>1048.534528690724</v>
       </c>
       <c r="E38" t="n">
-        <v>435.3414999783445</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="F38" t="n">
-        <v>435.3414999783445</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>218.5550230512565</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7177,16 +7177,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7204,22 +7204,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V38" t="n">
-        <v>1334.566480014244</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W38" t="n">
-        <v>1334.566480014244</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X38" t="n">
-        <v>915.4240165935545</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y38" t="n">
-        <v>915.4240165935545</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>546.2867191875922</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C40" t="n">
-        <v>546.2867191875922</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="D40" t="n">
-        <v>380.4087263891149</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="E40" t="n">
-        <v>210.6507226398521</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="F40" t="n">
         <v>33.94366860160834</v>
@@ -7332,19 +7332,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>761.8145120199619</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M40" t="n">
-        <v>761.8145120199619</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N40" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7371,13 +7371,13 @@
         <v>885.9154747824084</v>
       </c>
       <c r="W40" t="n">
-        <v>738.1053379065793</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X40" t="n">
-        <v>738.1053379065793</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y40" t="n">
-        <v>738.1053379065793</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33.94366860160834</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C41" t="n">
-        <v>33.94366860160834</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D41" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E41" t="n">
         <v>33.94366860160834</v>
@@ -7411,28 +7411,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J41" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
-        <v>1277.130531135514</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>1277.130531135514</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>1277.130531135514</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P41" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q41" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R41" t="n">
         <v>1697.183430080417</v>
@@ -7441,22 +7441,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.531556264254</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="V41" t="n">
-        <v>1613.531556264254</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="W41" t="n">
-        <v>1208.676101675288</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="X41" t="n">
-        <v>789.5336382545983</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="Y41" t="n">
-        <v>381.2475145542517</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>422.0704516497129</v>
+        <v>295.8703290280167</v>
       </c>
       <c r="C43" t="n">
-        <v>249.5087401329378</v>
+        <v>295.8703290280167</v>
       </c>
       <c r="D43" t="n">
-        <v>249.5087401329378</v>
+        <v>295.8703290280167</v>
       </c>
       <c r="E43" t="n">
-        <v>210.6507226398521</v>
+        <v>295.8703290280167</v>
       </c>
       <c r="F43" t="n">
-        <v>33.94366860160834</v>
+        <v>119.1632749897729</v>
       </c>
       <c r="G43" t="n">
         <v>33.94366860160834</v>
@@ -7569,19 +7569,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L43" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M43" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N43" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O43" t="n">
         <v>1181.483761245743</v>
@@ -7596,25 +7596,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U43" t="n">
-        <v>1172.870982911978</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V43" t="n">
-        <v>885.9154747824084</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="W43" t="n">
-        <v>613.8890703687</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="X43" t="n">
-        <v>613.8890703687</v>
+        <v>487.6889477470038</v>
       </c>
       <c r="Y43" t="n">
-        <v>613.8890703687</v>
+        <v>487.6889477470038</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>724.4716545351282</v>
+        <v>642.5305087682017</v>
       </c>
       <c r="C44" t="n">
-        <v>724.4716545351282</v>
+        <v>213.94883450547</v>
       </c>
       <c r="D44" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E44" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F44" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G44" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I44" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K44" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q44" t="n">
         <v>1528.02936532736</v>
@@ -7678,22 +7678,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V44" t="n">
-        <v>1334.566480014244</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W44" t="n">
-        <v>929.7110254252771</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X44" t="n">
-        <v>929.7110254252771</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.4716545351282</v>
+        <v>1068.830079253109</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>718.8484307043673</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="C46" t="n">
-        <v>546.2867191875922</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D46" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E46" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F46" t="n">
         <v>33.94366860160834</v>
@@ -7806,25 +7806,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
         <v>1697.183430080417</v>
@@ -7833,25 +7833,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T46" t="n">
-        <v>1383.478474775834</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U46" t="n">
-        <v>1383.478474775834</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.478474775834</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W46" t="n">
-        <v>1383.478474775834</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X46" t="n">
-        <v>1138.086720109246</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="Y46" t="n">
-        <v>910.6670494233545</v>
+        <v>386.9570914377655</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8142,16 +8142,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,22 +8218,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P6" t="n">
         <v>424.2958575201044</v>
@@ -8318,7 +8318,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8382,13 +8382,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8455,11 +8455,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8619,13 +8619,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,25 +8768,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8856,13 +8856,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -8929,22 +8929,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9403,25 +9403,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9482,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -9564,19 +9564,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9640,7 +9640,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P23" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N28" t="n">
-        <v>370.2350542247758</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>56.52305090189816</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>407.1525905495951</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K32" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K32" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10506,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M34" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10825,7 +10825,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O43" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P44" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22549,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>373.1912020763808</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -22603,13 +22603,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>196.0602336441231</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>126.3554903647381</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>116.168850835326</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>10.05291632967158</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>137.679865786328</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -22846,7 +22846,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -22950,19 +22950,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76681449939456</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>150.0830022581258</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23074,16 +23074,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>354.381192774452</v>
+        <v>6.03435246316144</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>65.69011590734371</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>89.52845561349625</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23272,13 +23272,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>354.381192774452</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>152.3706453934011</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23509,13 +23509,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>101.2143293660187</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>354.7938142535834</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -23664,13 +23664,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23703,16 +23703,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>216.5345543350054</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23743,13 +23743,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23785,22 +23785,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>7.852659571189008</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>218.5834710056094</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>21.26856286565942</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>170.7232071360872</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -23980,13 +23980,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>18.62318932011459</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>38.26486251750879</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,22 +24177,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>157.535305561369</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.1395093610234</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>377.3194891395378</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>136.2584575529073</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0414389630128</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -24381,7 +24381,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>132.0916749258914</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>59.33415455948301</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>403.1016655396934</v>
       </c>
       <c r="E26" t="n">
         <v>5.14113987318342</v>
@@ -24460,10 +24460,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
@@ -24505,7 +24505,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.67528209130282</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>147.8076776129492</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>354.1250124085991</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>357.5213748288652</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>96.78810843022221</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>152.0244595382798</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>90.66801464919035</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>171.4075119270331</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>65.69011590734367</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>115.535263158552</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>48.19159619388154</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>347.5617833740778</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>251.8982195931011</v>
+        <v>269.1932531040511</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>380.5648530483463</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E38" t="n">
         <v>5.14113987318342</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>103.4736121060642</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25444,19 +25444,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>68.87734684739507</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>122.9741048625006</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.20576728694181</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>183.5921982861386</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>129.5909863936153</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>79.56795190014773</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,13 +25836,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>253.7581942116083</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25879,13 +25879,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>201.0162852820957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>11.25323832560895</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -26073,19 +26073,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>90.50170122077475</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>361339.1909897055</v>
+        <v>361339.1909897054</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>361339.1909897054</v>
+        <v>361339.1909897056</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>361339.1909897055</v>
+        <v>361339.1909897054</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>361339.1909897055</v>
+        <v>361339.1909897054</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>361339.1909897054</v>
+        <v>361339.1909897056</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>361339.1909897054</v>
+        <v>361339.1909897055</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>96161.87004965883</v>
+      </c>
+      <c r="C2" t="n">
         <v>96161.8700496588</v>
-      </c>
-      <c r="C2" t="n">
-        <v>96161.87004965881</v>
       </c>
       <c r="D2" t="n">
         <v>96161.8700496588</v>
       </c>
       <c r="E2" t="n">
-        <v>96161.87004965881</v>
+        <v>96161.8700496588</v>
       </c>
       <c r="F2" t="n">
-        <v>96161.87004965881</v>
+        <v>96161.87004965878</v>
       </c>
       <c r="G2" t="n">
         <v>96161.87004965881</v>
       </c>
       <c r="H2" t="n">
+        <v>96161.8700496588</v>
+      </c>
+      <c r="I2" t="n">
         <v>96161.87004965881</v>
-      </c>
-      <c r="I2" t="n">
-        <v>96161.8700496588</v>
       </c>
       <c r="J2" t="n">
         <v>96161.87004965881</v>
@@ -26349,10 +26349,10 @@
         <v>96161.87004965881</v>
       </c>
       <c r="N2" t="n">
-        <v>96161.87004965883</v>
+        <v>96161.8700496588</v>
       </c>
       <c r="O2" t="n">
-        <v>96161.8700496588</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="P2" t="n">
         <v>96161.8700496588</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142615.0271151015</v>
+        <v>-143354.3837270171</v>
       </c>
       <c r="C6" t="n">
-        <v>-423.7264553915811</v>
+        <v>-1163.083067307249</v>
       </c>
       <c r="D6" t="n">
-        <v>-423.7264553915957</v>
+        <v>-1163.083067307249</v>
       </c>
       <c r="E6" t="n">
-        <v>33203.87354460842</v>
+        <v>32464.51693269275</v>
       </c>
       <c r="F6" t="n">
-        <v>33203.87354460842</v>
+        <v>32464.51693269274</v>
       </c>
       <c r="G6" t="n">
-        <v>33203.87354460842</v>
+        <v>32464.51693269276</v>
       </c>
       <c r="H6" t="n">
-        <v>33203.87354460842</v>
+        <v>32464.51693269275</v>
       </c>
       <c r="I6" t="n">
-        <v>33203.8735446084</v>
+        <v>32464.51693269276</v>
       </c>
       <c r="J6" t="n">
-        <v>-77810.59180038176</v>
+        <v>-78549.94841229742</v>
       </c>
       <c r="K6" t="n">
-        <v>33203.87354460842</v>
+        <v>32464.51693269276</v>
       </c>
       <c r="L6" t="n">
-        <v>33203.8735446084</v>
+        <v>32464.51693269275</v>
       </c>
       <c r="M6" t="n">
-        <v>33203.87354460842</v>
+        <v>32464.51693269276</v>
       </c>
       <c r="N6" t="n">
-        <v>33203.87354460843</v>
+        <v>32464.51693269275</v>
       </c>
       <c r="O6" t="n">
-        <v>33203.8735446084</v>
+        <v>32464.51693269276</v>
       </c>
       <c r="P6" t="n">
-        <v>33203.8735446084</v>
+        <v>32464.51693269275</v>
       </c>
     </row>
   </sheetData>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34862,16 +34862,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,22 +34938,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P6" t="n">
         <v>424.2958575201044</v>
@@ -35038,7 +35038,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35175,11 +35175,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35339,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -35649,22 +35649,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36123,25 +36123,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36202,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -36284,19 +36284,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36360,7 +36360,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36372,13 +36372,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P23" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N28" t="n">
-        <v>370.2350542247758</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>56.52305090189816</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,16 +36846,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>407.1525905495951</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37004,7 +37004,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K32" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K32" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M34" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37545,7 +37545,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O43" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P44" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
